--- a/config_3.16/by3d_shtx_config.xlsx
+++ b/config_3.16/by3d_shtx_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
   <si>
     <t>line|行号</t>
   </si>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_yu22</t>
@@ -888,7 +884,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -937,7 +933,7 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -949,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -963,7 +959,7 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -975,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -989,7 +985,7 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -1001,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1015,10 +1011,10 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1027,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1041,10 +1037,10 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -1053,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1067,22 +1063,22 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1093,22 +1089,22 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1119,22 +1115,22 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1145,22 +1141,22 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1171,22 +1167,22 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1197,7 +1193,7 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -1209,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1223,22 +1219,22 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1249,7 +1245,7 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
@@ -1261,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1275,7 +1271,7 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
@@ -1287,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1301,7 +1297,7 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -1313,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1327,7 +1323,7 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -1339,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1353,7 +1349,7 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
@@ -1365,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1379,7 +1375,7 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
@@ -1391,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1405,7 +1401,7 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
@@ -1417,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1431,7 +1427,7 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
@@ -1443,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1457,7 +1453,7 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
@@ -1469,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1483,22 +1479,22 @@
         <v>15022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1509,22 +1505,22 @@
         <v>15023</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1535,22 +1531,22 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1561,22 +1557,22 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1587,22 +1583,22 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1613,7 +1609,7 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -1625,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1639,7 +1635,7 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -1651,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1665,7 +1661,7 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -1677,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1691,7 +1687,7 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -1703,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1717,7 +1713,7 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
@@ -1729,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1743,22 +1739,22 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1769,7 +1765,7 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -1781,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1795,7 +1791,7 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
@@ -1807,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1821,7 +1817,7 @@
         <v>15035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
@@ -1833,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1847,22 +1843,22 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1873,22 +1869,22 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1899,22 +1895,22 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1925,7 +1921,7 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
@@ -1937,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1951,7 +1947,7 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
@@ -1963,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1977,7 +1973,7 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -1989,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2003,7 +1999,7 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
@@ -2015,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2029,7 +2025,7 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -2041,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2055,7 +2051,7 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -2067,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2081,7 +2077,7 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -2093,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2107,22 +2103,22 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2133,7 +2129,7 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
@@ -2145,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2159,7 +2155,7 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -2171,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2185,7 +2181,7 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
@@ -2197,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2211,7 +2207,7 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
@@ -2223,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2237,7 +2233,7 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
@@ -2249,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2263,7 +2259,7 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
@@ -2275,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2289,7 +2285,7 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
@@ -2301,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2315,7 +2311,7 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
@@ -2327,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2341,7 +2337,7 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
@@ -2353,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2367,7 +2363,7 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
@@ -2379,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2393,7 +2389,7 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
@@ -2405,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2419,7 +2415,7 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -2431,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2445,7 +2441,7 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -2457,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2471,7 +2467,7 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
@@ -2483,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2497,7 +2493,7 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
@@ -2509,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2523,7 +2519,7 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
@@ -2535,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2549,22 +2545,22 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2575,22 +2571,22 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2601,22 +2597,22 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2627,7 +2623,7 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -2639,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2653,22 +2649,22 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2679,7 +2675,7 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
@@ -2691,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2705,7 +2701,7 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -2717,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2731,7 +2727,7 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
@@ -2743,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2757,22 +2753,22 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2813,10 +2809,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2827,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2841,10 +2837,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2855,10 +2851,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2869,10 +2865,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2883,10 +2879,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2897,10 +2893,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2911,10 +2907,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2925,10 +2921,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2939,10 +2935,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2953,10 +2949,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2967,10 +2963,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2981,10 +2977,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2995,10 +2991,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3009,10 +3005,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3023,10 +3019,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3037,10 +3033,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3051,10 +3047,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3065,10 +3061,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3079,10 +3075,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3093,10 +3089,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3107,10 +3103,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3128,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3149,10 +3145,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3170,10 +3166,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3191,10 +3187,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3212,10 +3208,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3233,10 +3229,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3254,10 +3250,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3275,10 +3271,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3296,10 +3292,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3317,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3338,10 +3334,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3359,10 +3355,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3380,10 +3376,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3401,10 +3397,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3422,10 +3418,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3443,10 +3439,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3464,10 +3460,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3485,10 +3481,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3506,10 +3502,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>

--- a/config_3.16/by3d_shtx_config.xlsx
+++ b/config_3.16/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="123">
   <si>
     <t>line|行号</t>
   </si>
@@ -172,14 +172,6 @@
     <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
   </si>
   <si>
-    <t>3dby_icon_yu29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu31</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -208,10 +200,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_jn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_hd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -220,26 +208,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu24</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -260,14 +228,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu37</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -280,26 +240,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"com_icon_yb",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -332,10 +272,6 @@
     <t>"X1",</t>
   </si>
   <si>
-    <t>rw_icon_bd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"3dby_btn_kb",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -485,6 +421,26 @@
   </si>
   <si>
     <t>捕鱼活动鱼10条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_js</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_kb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_jb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -931,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -981,7 +937,7 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -993,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1007,7 +963,7 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -1019,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1033,7 +989,7 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -1045,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1059,7 +1015,7 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -1071,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1085,7 +1041,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1097,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1111,22 +1067,22 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1137,22 +1093,22 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1163,22 +1119,22 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1189,22 +1145,22 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1215,22 +1171,22 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1241,7 +1197,7 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -1253,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1267,22 +1223,22 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1293,7 +1249,7 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
@@ -1305,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1319,7 +1275,7 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
@@ -1331,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1345,7 +1301,7 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -1357,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1371,7 +1327,7 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -1383,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1397,7 +1353,7 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
@@ -1409,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1423,7 +1379,7 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
@@ -1435,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1449,7 +1405,7 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
@@ -1461,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1475,7 +1431,7 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
@@ -1487,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1501,7 +1457,7 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
@@ -1513,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1527,22 +1483,22 @@
         <v>15022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1553,22 +1509,22 @@
         <v>15023</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1579,22 +1535,22 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1605,22 +1561,22 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1631,22 +1587,22 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1657,7 +1613,7 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -1669,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1683,7 +1639,7 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -1695,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1709,7 +1665,7 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -1721,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1735,7 +1691,7 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -1747,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,7 +1717,7 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
@@ -1773,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1787,22 +1743,22 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1813,7 +1769,7 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -1825,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1839,7 +1795,7 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
@@ -1851,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1865,7 +1821,7 @@
         <v>15035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
@@ -1877,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1891,22 +1847,22 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1917,22 +1873,22 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1943,22 +1899,22 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1969,7 +1925,7 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
@@ -1981,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1995,7 +1951,7 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
@@ -2007,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2021,7 +1977,7 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -2033,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2047,7 +2003,7 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
@@ -2059,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2073,7 +2029,7 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -2085,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2099,7 +2055,7 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -2111,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2125,7 +2081,7 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -2137,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2151,22 +2107,22 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2177,7 +2133,7 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
@@ -2189,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2203,7 +2159,7 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -2215,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2229,7 +2185,7 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
@@ -2241,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2255,7 +2211,7 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
@@ -2267,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2281,7 +2237,7 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
@@ -2293,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2307,7 +2263,7 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
@@ -2319,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2333,7 +2289,7 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
@@ -2345,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2359,7 +2315,7 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
@@ -2371,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2385,7 +2341,7 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
@@ -2397,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2411,7 +2367,7 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
@@ -2423,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2437,7 +2393,7 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
@@ -2449,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2463,7 +2419,7 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -2475,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2489,7 +2445,7 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -2501,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2515,7 +2471,7 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
@@ -2527,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2541,7 +2497,7 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
@@ -2553,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2567,7 +2523,7 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
@@ -2579,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2593,22 +2549,22 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2619,22 +2575,22 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2645,22 +2601,22 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2671,7 +2627,7 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -2683,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2697,22 +2653,22 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2723,7 +2679,7 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
@@ -2735,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2749,7 +2705,7 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -2761,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2775,7 +2731,7 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
@@ -2787,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2801,22 +2757,22 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2787,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2857,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2871,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2885,10 +2841,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2899,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2913,10 +2869,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2927,10 +2883,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2941,10 +2897,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2955,10 +2911,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2969,10 +2925,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2983,10 +2939,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2997,10 +2953,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3011,10 +2967,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3025,10 +2981,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3039,10 +2995,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3053,10 +3009,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3067,10 +3023,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3081,10 +3037,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3095,10 +3051,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3109,10 +3065,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3123,10 +3079,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3137,10 +3093,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3151,10 +3107,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3172,10 +3128,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3193,10 +3149,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3214,10 +3170,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3235,10 +3191,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3256,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3277,10 +3233,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3298,10 +3254,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3319,10 +3275,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3340,10 +3296,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3361,10 +3317,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3382,10 +3338,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3403,10 +3359,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3424,10 +3380,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3445,10 +3401,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3466,10 +3422,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3487,10 +3443,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3508,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3529,10 +3485,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3550,10 +3506,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>
